--- a/generated-files/ItemTemplate.xlsx
+++ b/generated-files/ItemTemplate.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6E7DA-D4FD-4799-B0B9-9BEDEF39C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="9345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemTemplate" r:id="rId3" sheetId="1"/>
+    <sheet name="ItemTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -78,19 +86,283 @@
   </si>
   <si>
     <t>visualEffect</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>商店购买</t>
+  </si>
+  <si>
+    <t>装备界面</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
+  </si>
+  <si>
+    <t>随机生成</t>
+  </si>
+  <si>
+    <t>光效</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>副本掉落</t>
+  </si>
+  <si>
+    <t>传奇</t>
+  </si>
+  <si>
+    <t>固定生成</t>
+  </si>
+  <si>
+    <t>青龙偃月刀</t>
+  </si>
+  <si>
+    <t>关羽的专属武器，拥有强大的攻击力</t>
+  </si>
+  <si>
+    <t>/icons/qinglongyanyuedao.png</t>
+  </si>
+  <si>
+    <t>通过活动获取</t>
+  </si>
+  <si>
+    <t>虎符</t>
+  </si>
+  <si>
+    <t>可增加军队的士气和攻击力</t>
+  </si>
+  <si>
+    <t>/icons/hufu.png</t>
+  </si>
+  <si>
+    <t>光圈</t>
+  </si>
+  <si>
+    <t>诸葛连弩</t>
+  </si>
+  <si>
+    <t>可发射多支箭矢的连弩，适合远程攻击</t>
+  </si>
+  <si>
+    <t>/icons/zhugecrossbow.png</t>
+  </si>
+  <si>
+    <t>金疮药</t>
+  </si>
+  <si>
+    <t>恢复军队的部分兵力</t>
+  </si>
+  <si>
+    <t>/icons/jinchuangyao.png</t>
+  </si>
+  <si>
+    <t>野外拾取</t>
+  </si>
+  <si>
+    <t>兵书</t>
+  </si>
+  <si>
+    <t>提升武将的技能等级</t>
+  </si>
+  <si>
+    <t>/icons/bingshu.png</t>
+  </si>
+  <si>
+    <t>通过任务获取</t>
+  </si>
+  <si>
+    <t>技能界面</t>
+  </si>
+  <si>
+    <t>大礼包</t>
+  </si>
+  <si>
+    <t>包含大量资源和稀有物品</t>
+  </si>
+  <si>
+    <t>/icons/dalibao.png</t>
+  </si>
+  <si>
+    <t>充值获取</t>
+  </si>
+  <si>
+    <t>红色宝石</t>
+  </si>
+  <si>
+    <t>用于镶嵌到装备上，增加攻击力</t>
+  </si>
+  <si>
+    <t>/icons/redgem.png</t>
+  </si>
+  <si>
+    <t>宝箱获得</t>
+  </si>
+  <si>
+    <t>神秘卷轴</t>
+  </si>
+  <si>
+    <t>使用后可随机获得一种技能书</t>
+  </si>
+  <si>
+    <t>/icons/mysteryscroll.png</t>
+  </si>
+  <si>
+    <t>活动兑换</t>
+  </si>
+  <si>
+    <t>战马</t>
+  </si>
+  <si>
+    <t>增加骑兵的机动性和攻击力</t>
+  </si>
+  <si>
+    <t>/icons/horse.png</t>
+  </si>
+  <si>
+    <t>银两</t>
+  </si>
+  <si>
+    <t>游戏中的基本货币，用于购买物品</t>
+  </si>
+  <si>
+    <t>/icons/silver.png</t>
+  </si>
+  <si>
+    <t>宝箱钥匙</t>
+  </si>
+  <si>
+    <t>用于开启宝箱</t>
+  </si>
+  <si>
+    <t>/icons/key.png</t>
+  </si>
+  <si>
+    <t>天书</t>
+  </si>
+  <si>
+    <t>可以提升武将的天赋能力</t>
+  </si>
+  <si>
+    <t>/icons/tianshu.png</t>
+  </si>
+  <si>
+    <t>通过限时活动获得</t>
+  </si>
+  <si>
+    <t>天赋界面</t>
+  </si>
+  <si>
+    <t>火药</t>
+  </si>
+  <si>
+    <t>用于制造火器</t>
+  </si>
+  <si>
+    <t>/icons/gunpowder.png</t>
+  </si>
+  <si>
+    <t>传送卷轴</t>
+  </si>
+  <si>
+    <t>可传送至指定地点</t>
+  </si>
+  <si>
+    <t>/icons/teleportscroll.png</t>
+  </si>
+  <si>
+    <t>玉玺</t>
+  </si>
+  <si>
+    <t>象征皇权的至宝，可提升统御能力</t>
+  </si>
+  <si>
+    <t>/icons/jade_seal.png</t>
+  </si>
+  <si>
+    <t>通过战役掉落</t>
+  </si>
+  <si>
+    <t>军旗</t>
+  </si>
+  <si>
+    <t>用于提升军队士气</t>
+  </si>
+  <si>
+    <t>/icons/armyflag.png</t>
+  </si>
+  <si>
+    <t>龙纹护符</t>
+  </si>
+  <si>
+    <t>使用后可随机获得防御型装备</t>
+  </si>
+  <si>
+    <t>/icons/dragoncharm.png</t>
+  </si>
+  <si>
+    <t>充值奖励</t>
+  </si>
+  <si>
+    <t>战鼓</t>
+  </si>
+  <si>
+    <t>增加军队士气，提升攻击力</t>
+  </si>
+  <si>
+    <t>/icons/war_drum.png</t>
+  </si>
+  <si>
+    <t>护心镜</t>
+  </si>
+  <si>
+    <t>可镶嵌到防具上，增加防御力</t>
+  </si>
+  <si>
+    <t>/icons/protectionmirror.png</t>
+  </si>
+  <si>
+    <t>神兵符</t>
+  </si>
+  <si>
+    <t>可召唤强大的神兵协助战斗</t>
+  </si>
+  <si>
+    <t>/icons/shenbingfu.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,7 +371,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -112,93 +384,994 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/generated-files/ItemTemplate.xlsx
+++ b/generated-files/ItemTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6E7DA-D4FD-4799-B0B9-9BEDEF39C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88916727-ECA3-46CF-8D73-26B44C56A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTemplate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -34,12 +34,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>稀有度</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>visualEffect</t>
   </si>
   <si>
-    <t>武器</t>
-  </si>
-  <si>
     <t>普通</t>
   </si>
   <si>
@@ -100,12 +91,6 @@
     <t>装备界面</t>
   </si>
   <si>
-    <t>消耗品</t>
-  </si>
-  <si>
-    <t>宝箱</t>
-  </si>
-  <si>
     <t>稀有</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>光效</t>
   </si>
   <si>
-    <t>材料</t>
-  </si>
-  <si>
     <t>副本掉落</t>
   </si>
   <si>
@@ -344,13 +326,35 @@
   </si>
   <si>
     <t>/icons/shenbingfu.png</t>
+  </si>
+  <si>
+    <t>itemCategory</t>
+  </si>
+  <si>
+    <t>SKILL_FRAGMENT</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>SKILL_FRAGMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMAMENT_FRAGMENT</t>
+  </si>
+  <si>
+    <t>SPECIALITY</t>
+  </si>
+  <si>
+    <t>道具类别</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -364,6 +368,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,8 +399,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,12 +723,15 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,34 +739,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -757,617 +774,617 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/generated-files/ItemTemplate.xlsx
+++ b/generated-files/ItemTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88916727-ECA3-46CF-8D73-26B44C56A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE06D9-036A-4B43-B15C-367D00130682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>是否宝箱</t>
   </si>
   <si>
-    <t>isChest</t>
-  </si>
-  <si>
     <t>宝箱类型</t>
   </si>
   <si>
@@ -348,6 +345,10 @@
   </si>
   <si>
     <t>道具类别</t>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,7 +724,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -739,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -760,10 +761,10 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -774,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -792,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -806,31 +807,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -838,28 +839,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -867,31 +868,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -899,22 +900,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -925,25 +926,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -954,31 +955,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -986,28 +987,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1015,31 +1016,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
         <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1047,31 +1048,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1079,22 +1080,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1105,22 +1106,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1131,31 +1132,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1163,22 +1164,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1189,22 +1190,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1215,28 +1216,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1244,22 +1245,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1270,31 +1271,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1302,31 +1303,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1334,28 +1335,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1363,28 +1364,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
